--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="176">
   <si>
     <t>PARTICIPANT</t>
   </si>
@@ -388,7 +388,7 @@
     <t>Squat 1 (0-44)</t>
   </si>
   <si>
-    <t>1.26</t>
+    <t>0.95</t>
   </si>
   <si>
     <t>tp_l_rgb_squat_camId_244622073485_n00128_06172024_151814.png</t>
@@ -397,16 +397,13 @@
     <t>Squat 2 (44-107)</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
     <t>tp_l_rgb_squat_camId_244622073485_n00130_06172024_151814.png</t>
   </si>
   <si>
     <t>Squat 3 (107-163)</t>
   </si>
   <si>
-    <t>1.14</t>
+    <t>0.83</t>
   </si>
   <si>
     <t>tp_l_rgb_squat_camId_244622073485_n00244_06172024_151814.png</t>
@@ -433,10 +430,10 @@
     <t>Squat 2 (52-101)</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>tp_m_rgb_squat_camId_244622073485_n00177_06172024_152121.png</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>tp_m_rgb_squat_camId_244622073485_n00178_06172024_152121.png</t>
   </si>
   <si>
     <t>3.75</t>
@@ -1749,7 +1746,7 @@
         <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>124</v>
@@ -1784,10 +1781,10 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
         <v>127</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1810,16 +1807,16 @@
     </row>
     <row r="36" spans="1:11">
       <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>130</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1842,74 +1839,74 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
         <v>135</v>
       </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>136</v>
-      </c>
-      <c r="K38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>139</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
         <v>140</v>
       </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>141</v>
-      </c>
-      <c r="K39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1918,30 +1915,30 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
         <v>144</v>
       </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>145</v>
-      </c>
-      <c r="K40" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
@@ -1953,30 +1950,30 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
         <v>148</v>
       </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
         <v>149</v>
       </c>
-      <c r="H42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>150</v>
-      </c>
-      <c r="K42" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="B43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1985,156 +1982,156 @@
         <v>113</v>
       </c>
       <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>153</v>
       </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>154</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
         <v>155</v>
       </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" t="s">
-        <v>156</v>
-      </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
         <v>157</v>
       </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>158</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>159</v>
       </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>160</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
         <v>161</v>
       </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" t="s">
-        <v>162</v>
-      </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
         <v>163</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>164</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>165</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
         <v>166</v>
       </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>167</v>
-      </c>
-      <c r="K46" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>170</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
         <v>171</v>
       </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" t="s">
-        <v>172</v>
-      </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>173</v>
       </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>174</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
         <v>175</v>
       </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>176</v>
-      </c>
       <c r="K48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
